--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_5662.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_5662.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5662</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Romario Shepherd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +664,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +716,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +768,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +816,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +968,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1020,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1124,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1176,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1164,7 +1228,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1216,7 +1280,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1332,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1320,7 +1384,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1436,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1411,7 +1475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1497,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1470,7 +1534,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1507,7 +1571,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1544,7 +1608,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1581,7 +1645,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1618,7 +1682,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1655,7 +1719,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1692,7 +1756,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1729,7 +1793,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1766,7 +1830,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1803,7 +1867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1840,7 +1904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1877,7 +1941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1914,7 +1978,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1951,7 +2015,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1988,7 +2052,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2025,7 +2089,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2062,7 +2126,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_5662.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_5662.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
